--- a/WebSite/Upload/Sample/대리점_재고업로드_의류(가로).xlsx
+++ b/WebSite/Upload/Sample/대리점_재고업로드_의류(가로).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>MK-2003</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>; 중복된 스타일번호가 있을 때는 나중에 있는 것으로 대치됩니다. (만약 있는 경우에는 오류메세지 후 종료…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(반드시 'A2셀:스타일번호', 'L2셀:재고수량'이어야 합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,43 +100,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>; 스타일번호, 싸이즈명은 마커 본사에서 제공한 것 이어야만 합니다. (만약에 본사에 없는 스타일번호나 사이즈명은 오류 메시지 후 종료....)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; 사이즈별 수량 합계와 재고수량이 같아야 합니다. ( 다른 경우 오류메세지 후 종료…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; 중간 행에 공백이 없이 입력합니다. (공백이 있으면 그 라인 전 까지 행만 처리합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 양식을 예를 들면 --&gt; 7행까지만 처리되고 8행 이부터는 무시됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>'가로양식(의류용)' 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MK-111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MK-113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MK-114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 본사에 없는 스타일번호는 오류 메시지 후 업-로드가 중지됩니다. (5번 라인과 같은 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 사이즈별 수량 합계와 재고수량이 다를 경우 오류메세지 후 업-로드가 중지됩니다.(7번 라인과 같은 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 중간 행에 공백이 없이 입력하며, 공백이 있으면 그 라인을 마지막으로 인식합니다. (8번 라인부터는 무시됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROK-111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 중복된 스타일번호가 있을 경우에는 오류메세지 후 업-로드가 중지됩니다. (6번 라인이 3번 라인과 중복됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +164,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +204,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,9 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,16 +401,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,64 +754,64 @@
       <c r="L1" s="16"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X2"/>
     </row>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -864,12 +864,12 @@
         <v>120</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -880,33 +880,33 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
@@ -915,37 +915,35 @@
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -962,12 +960,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="10"/>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -996,16 +994,6 @@
       <c r="L9" s="10">
         <v>7</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
